--- a/biology/Médecine/Cruralgie/Cruralgie.xlsx
+++ b/biology/Médecine/Cruralgie/Cruralgie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cruralgie ou névralgie crurale est une douleur de la face antérieure du membre inférieur, causée par une irritation ou une compression du nerf fémoral (anciennement nerf crural) ou d'une de ses racines (L3 ou L4). 
 La douleur part du bas du dos et descend devant la cuisse, jusqu'au genou, jusqu'à la face interne de la jambe (cruris en latin), voire jusqu'au creux plantaire. La douleur, de type névralgique, est due à des lésions axonales (axonotmèse), tronculaires (neurotmèse) ou rachidiennes, l'irritation d'une des racines comprimant le nerf crural (maintenant appelé nerf fémoral), au niveau de L3 (entre L1, L2, L3, L4, voire S1 selon les auteurs d'anatomie). Selon la racine irritée, le trajet de la douleur sera différent.
@@ -514,9 +526,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est habituellement un sujet âgé de 50 à 60 ans, qui est sujet à la cruralgie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est habituellement un sujet âgé de 50 à 60 ans, qui est sujet à la cruralgie.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les causes sont les mêmes que pour la sciatique :
 Hernie discale
@@ -586,19 +602,18 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Signes fonctionnels
-Douleurs intermittentes, à la face extérieure de la hanche, au niveau de l'aine et sur le devant de la cuisse.
+          <t>Signes fonctionnels</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Douleurs intermittentes, à la face extérieure de la hanche, au niveau de l'aine et sur le devant de la cuisse.
 Majorées lors des efforts de toux ou à la défécation.
 Calmées par le repos en position allongée ou debout
 Déclenchées par la position assise (notamment en voiture)
 Pour les hommes une douleur au toucher du testicule, voire un gonflement de celui-ci.
-Accompagnées d'un cortège de symptômes tel des paresthésies, une allodynie ou une anesthésie
-Examen clinique
-Le signe de Lasègue inversé, aussi appelé « signe de Leri », est positif : à plat ventre, l'extension forcée en arrière de la jambe réveille la douleur.
-Elle est aussi réveillée par l'extension de la cuisse genou fléchi (signe du crural).
-Examens complémentaires
-Le scanner ou l'IRM du rachis lombaire apportent des renseignements d'ordre topographique et permettent d'apprécier le degré de compression des racines nerveuses.
-</t>
+Accompagnées d'un cortège de symptômes tel des paresthésies, une allodynie ou une anesthésie</t>
         </is>
       </c>
     </row>
@@ -623,12 +638,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Prise en charge</t>
+          <t>Diagnostic</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les traitements sont les mêmes que ceux de la sciatique.
+          <t>Examen clinique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le signe de Lasègue inversé, aussi appelé « signe de Leri », est positif : à plat ventre, l'extension forcée en arrière de la jambe réveille la douleur.
+Elle est aussi réveillée par l'extension de la cuisse genou fléchi (signe du crural).
 </t>
         </is>
       </c>
@@ -654,12 +676,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Évolution et complications</t>
+          <t>Diagnostic</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Signe de gravité : cruralgie paralysante, cruralgie hyperalgique.
+          <t>Examens complémentaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le scanner ou l'IRM du rachis lombaire apportent des renseignements d'ordre topographique et permettent d'apprécier le degré de compression des racines nerveuses.
 </t>
         </is>
       </c>
@@ -685,10 +713,78 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Prise en charge</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les traitements sont les mêmes que ceux de la sciatique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cruralgie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cruralgie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Évolution et complications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Signe de gravité : cruralgie paralysante, cruralgie hyperalgique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cruralgie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cruralgie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Prévention</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
